--- a/biology/Botanique/Roigebrageldi/Roigebrageldi.xlsx
+++ b/biology/Botanique/Roigebrageldi/Roigebrageldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Roigebrageldi sont une spécialité culinaire d'Alsace (France) constituée de pommes de terre, de lardons, d'oignons, de beurre et de vin blanc, avec ou sans poireau. Plusieurs variantes culinaires existent selon les lieux.
@@ -512,7 +524,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Variantes orthographiques alsaciennes
 L'orthographe peut varier selon la région, étant donné que l'alsacien est un dialecte. On trouve donc :
@@ -552,9 +566,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot tire son origine de « roi » (à Colmar) ou « ràui[1] » (à Mulhouse) qui signifie « cru », et « ge-brageldi » (à Colmar) ou « ge-bragelda » (à Mulhouse)qui signifie « rissolés », avec ge = préfixe indiquant le participe passé du verbe « braga[2] », « rissoller ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot tire son origine de « roi » (à Colmar) ou « ràui » (à Mulhouse) qui signifie « cru », et « ge-brageldi » (à Colmar) ou « ge-bragelda » (à Mulhouse)qui signifie « rissolés », avec ge = préfixe indiquant le participe passé du verbe « braga », « rissoller ».
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plat[3] est une alternance de couches de pommes de terre, de lard, d'oignons et d'autres ingrédients. Il cuit pendant plusieurs heures à la marmite à l'étouffée. Le résultat est une sorte de purée épaisse, servie avec de la palette de porc fumée (proche du petit salé).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plat est une alternance de couches de pommes de terre, de lard, d'oignons et d'autres ingrédients. Il cuit pendant plusieurs heures à la marmite à l'étouffée. Le résultat est une sorte de purée épaisse, servie avec de la palette de porc fumée (proche du petit salé).
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Repas marcaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Roigebrageldi sont un des plats typiques dans les fermes-auberges des chaumes des Hautes-Vosges (Firstmiss, Schmargult, Balveurche, etc., tenues par des Alsaciens) parmi le menu unique appelé « repas marcaire » dont voici le détail :
 pâté de viande en croûte,
